--- a/Docs/Dev.xlsx
+++ b/Docs/Dev.xlsx
@@ -108,7 +108,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -120,76 +120,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -479,7 +409,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +442,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -590,13 +520,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:J7">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"New"</formula>
     </cfRule>
   </conditionalFormatting>
